--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-289324.9766344805</v>
+        <v>-291212.5581508831</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>201.5556247624126</v>
       </c>
       <c r="U2" t="n">
-        <v>182.0349452141651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>157.004478340614</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>155.4526127311941</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>24.29040109555791</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>128.855601711091</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>163.4399765605759</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>181.7736994859595</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.1282413554524</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>382.50719346288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>6.589216714231819</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>94.45289593214784</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620681</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182164</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>39.5452364728533</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>193.8883348557942</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>93.21955153433329</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>87.90277740092429</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>115.5269768002171</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>109.8144320947542</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>233.3876732539817</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>176.9527187969215</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U25" t="n">
-        <v>76.58425543584799</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>158.0300713929043</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533799</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700704</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.41221638965496</v>
       </c>
       <c r="E31" t="n">
-        <v>69.53747098912814</v>
+        <v>91.23070601801177</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.21779139437385</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>6.749002612123688</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523566</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550459</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298319</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700199</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952706</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.3197417080336</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604798</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235374</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4325,13 +4325,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2493.55755085417</v>
       </c>
       <c r="U2" t="n">
-        <v>2513.275408983712</v>
+        <v>2493.55755085417</v>
       </c>
       <c r="V2" t="n">
-        <v>2182.212521640141</v>
+        <v>2493.55755085417</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.212521640141</v>
+        <v>2140.788895584055</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.746763379062</v>
+        <v>1767.323137322976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.746763379062</v>
+        <v>1377.183805347164</v>
       </c>
     </row>
     <row r="3">
@@ -4383,61 +4383,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1602.48111343776</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>1233.518596497348</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>875.252897890598</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>489.4646452923537</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>78.47874050274618</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2137.052644524937</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2137.052644524937</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="Y5" t="n">
-        <v>1602.48111343776</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.621179645333</v>
+        <v>544.5191867458693</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2656.615513891503</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2480.438026205673</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2480.438026205673</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2480.438026205673</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1626.94664591678</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.8405610245969</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>513.8405610245969</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>507.1847865657769</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>603.305099472028</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245969</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.8405610245969</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5027,64 +5027,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>901.6749225845915</v>
       </c>
       <c r="M12" t="n">
-        <v>1722.015429253975</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528585</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831245</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>377.6878657662453</v>
+        <v>437.6964226305948</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>437.6964226305948</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>287.579783218255</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>287.579783218255</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>287.579783218255</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>287.579783218255</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>137.1617747661982</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>755.1831334811257</v>
+        <v>955.1031435655727</v>
       </c>
       <c r="W13" t="n">
-        <v>559.336330596485</v>
+        <v>665.6859735286122</v>
       </c>
       <c r="X13" t="n">
-        <v>559.336330596485</v>
+        <v>437.6964226305948</v>
       </c>
       <c r="Y13" t="n">
-        <v>559.336330596485</v>
+        <v>437.6964226305948</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5279,22 +5279,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,19 +5358,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341669</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1632.773754790661</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.23751609332</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>510.7324460062426</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C16" t="n">
-        <v>341.7962630783358</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5440,46 +5440,46 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1410.125586314544</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1120.996947528102</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.78763177146</v>
+        <v>866.312459322215</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344997</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="X16" t="n">
-        <v>692.3809108364824</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="Y16" t="n">
-        <v>692.3809108364824</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5513,28 +5513,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.1935825831084</v>
+        <v>213.9110074201011</v>
       </c>
       <c r="C19" t="n">
-        <v>358.2573996552015</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>208.1407602428658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609658</v>
       </c>
       <c r="V19" t="n">
-        <v>755.1831334811258</v>
+        <v>731.317728355079</v>
       </c>
       <c r="W19" t="n">
-        <v>755.1831334811258</v>
+        <v>441.9005583181184</v>
       </c>
       <c r="X19" t="n">
-        <v>527.1935825831084</v>
+        <v>213.9110074201011</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.1935825831084</v>
+        <v>213.9110074201011</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881927</v>
+        <v>860.7301020851611</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>860.7301020851611</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728253</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5908,13 +5908,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655739</v>
+        <v>1263.171146058931</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286133</v>
+        <v>1263.171146058931</v>
       </c>
       <c r="X22" t="n">
-        <v>486.9458535317228</v>
+        <v>1263.171146058931</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881927</v>
+        <v>1042.378566915401</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799366</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U25" t="n">
-        <v>1197.773021573825</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>943.0885333679381</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>653.6713633309776</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805483</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822475</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.78763177146</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655735</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>665.685973528613</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>665.685973528613</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>665.685973528613</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,22 +6473,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>673.1887347098084</v>
+        <v>494.846668111028</v>
       </c>
       <c r="C31" t="n">
-        <v>560.0134170632723</v>
+        <v>381.6713504644922</v>
       </c>
       <c r="D31" t="n">
-        <v>465.6576429323077</v>
+        <v>287.3155763335276</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463198</v>
+        <v>195.1633480325056</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297802</v>
+        <v>104.0342658159664</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933507</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667516</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962062</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286026</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021649</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056077</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056077</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918253</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1623.942368323877</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1390.574594818807</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1191.650971894291</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.336733737483</v>
+        <v>957.9946671387019</v>
       </c>
       <c r="X31" t="n">
-        <v>964.1080481208364</v>
+        <v>785.7659815220557</v>
       </c>
       <c r="Y31" t="n">
-        <v>799.0763342586772</v>
+        <v>620.7342676598967</v>
       </c>
     </row>
     <row r="32">
@@ -6683,25 +6683,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6719,7 +6719,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,10 +6889,10 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,61 +6926,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="41">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083194</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025261</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859415</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525395</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254952</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649685</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>124.3400780863243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445223</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714842</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9015,19 +9015,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>29.47535963978376</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445223</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>43.65987261462453</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>43.6598726146251</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>70.87400899141873</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>92.6346634807968</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>55.39592148387906</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,19 +23704,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>133.644783657465</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>51.71984429841071</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>36.61953055181502</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24181,16 +24181,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>18.74997006984634</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>48.75693659211569</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="U25" t="n">
-        <v>209.6530969627294</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.80190878903304</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>21.69323502888389</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>104.5413092226965</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897873</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>55.21598883571457</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523538</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26314,40 +26314,40 @@
         <v>246312.5309592849</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="D2" t="n">
         <v>246312.5309592849</v>
       </c>
       <c r="E2" t="n">
-        <v>234617.4358426252</v>
+        <v>234617.4358426253</v>
       </c>
       <c r="F2" t="n">
         <v>234617.4358426252</v>
       </c>
       <c r="G2" t="n">
-        <v>234617.4358426253</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="H2" t="n">
         <v>234617.4358426251</v>
       </c>
       <c r="I2" t="n">
-        <v>234617.435842625</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="J2" t="n">
-        <v>234617.4358426252</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="K2" t="n">
-        <v>244093.2824071618</v>
+        <v>244093.2824071616</v>
       </c>
       <c r="L2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="O2" t="n">
         <v>246312.5309592851</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.2191925933</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284592</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008668</v>
+        <v>10342.90680086661</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284594</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007518</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007496</v>
+        <v>7916.731656007489</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007505</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020404</v>
+        <v>26081.3541702041</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732794</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732799</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732798</v>
-      </c>
-      <c r="M4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26488,16 +26488,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022284</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-574431.4750345899</v>
+        <v>-574431.47503459</v>
       </c>
       <c r="C6" t="n">
-        <v>15536.40417995455</v>
+        <v>15536.40417995464</v>
       </c>
       <c r="D6" t="n">
         <v>15536.40417995461</v>
       </c>
       <c r="E6" t="n">
-        <v>-390446.658238995</v>
+        <v>-390544.1173649668</v>
       </c>
       <c r="F6" t="n">
-        <v>134713.3782379011</v>
+        <v>134615.9191119289</v>
       </c>
       <c r="G6" t="n">
-        <v>134713.3782379012</v>
+        <v>134615.9191119286</v>
       </c>
       <c r="H6" t="n">
-        <v>134713.378237901</v>
+        <v>134615.9191119288</v>
       </c>
       <c r="I6" t="n">
-        <v>134713.3782379006</v>
+        <v>134615.919111929</v>
       </c>
       <c r="J6" t="n">
-        <v>-41709.84095469154</v>
+        <v>-41807.30008066438</v>
       </c>
       <c r="K6" t="n">
-        <v>77221.11440388925</v>
+        <v>77202.62066595444</v>
       </c>
       <c r="L6" t="n">
-        <v>107918.9994410649</v>
+        <v>107918.999441065</v>
       </c>
       <c r="M6" t="n">
-        <v>-16539.10899190545</v>
+        <v>-16539.10899190552</v>
       </c>
       <c r="N6" t="n">
-        <v>118261.9062419317</v>
+        <v>118261.9062419316</v>
       </c>
       <c r="O6" t="n">
         <v>118261.9062419317</v>
       </c>
       <c r="P6" t="n">
-        <v>74099.30093908602</v>
+        <v>74099.30093908578</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,22 +26756,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010835</v>
+        <v>12.92863350108327</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855743</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,22 +26966,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990173</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545562</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990175</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>14.89269559524516</v>
       </c>
       <c r="U2" t="n">
-        <v>69.18922229412416</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>10.24234275801382</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>131.0703856053969</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>389.4937689252371</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>198.8966567590439</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>62.26967882846122</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>36.81095386613532</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>14.35016121935933</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.730745193173618</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>142.0262563039805</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>52.21229604801002</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.927418225022848e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-4.001776687800885e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28561,13 +28561,13 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.2032566285574</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,46 +32069,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,43 +32151,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.9101789549066</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594832</v>
       </c>
       <c r="M12" t="n">
-        <v>564.1615374009399</v>
+        <v>310.424377050466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178375</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>331.4334930178488</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507399</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.9101789549066</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560241</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178375</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>236.5687745713082</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507399</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091989</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>670.927063341192</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412294</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.905685158468</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.417443508486</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075299</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341611</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491603</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403582</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043217</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>250.7532875461497</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,16 +37710,16 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
